--- a/LF2 Arbeitsplaetze nach Kundenwuenschen austatten/qualitativer Angebotsvergleich/Arbeitsblatt_Scoring_Modell_QualAngebotsvergleich.xlsx
+++ b/LF2 Arbeitsplaetze nach Kundenwuenschen austatten/qualitativer Angebotsvergleich/Arbeitsblatt_Scoring_Modell_QualAngebotsvergleich.xlsx
@@ -1,33 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janin\Documents\BBS 1\Unterricht 2020_2021\IT Lernfeld 8\Kaufvertrag\qualitativer Angebotsvergleich\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ReGul4r\Schule\BBS1\LF2 Arbeitsplaetze nach Kundenwuenschen austatten\qualitativer Angebotsvergleich\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{125BD228-E5E6-4544-BAA2-61F0E15C688B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2008C392-EA9F-4FA4-BAF3-447BA16298EC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34CFBFDB-7EC5-44B4-9BFF-C88C5A8C5451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6468" yWindow="4044" windowWidth="14700" windowHeight="11628" xr2:uid="{E7A43E8D-10C4-46C5-9594-6696103F54A2}"/>
+    <workbookView xWindow="49785" yWindow="2625" windowWidth="21600" windowHeight="11385" xr2:uid="{E7A43E8D-10C4-46C5-9594-6696103F54A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Qualitativ (2)" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -82,7 +73,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -607,7 +598,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -906,10 +897,10 @@
   <dimension ref="B2:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.5703125" customWidth="1"/>
     <col min="3" max="3" width="18.7109375" customWidth="1"/>
@@ -1233,13 +1224,13 @@
     <col min="16137" max="16137" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="23.45">
+    <row r="2" spans="2:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="15" thickBot="1"/>
-    <row r="5" spans="2:9" ht="30" customHeight="1">
+    <row r="4" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="20" t="s">
         <v>1</v>
       </c>
@@ -1259,7 +1250,7 @@
       </c>
       <c r="I5" s="29"/>
     </row>
-    <row r="6" spans="2:9" ht="30" customHeight="1" thickBot="1">
+    <row r="6" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="21"/>
       <c r="C6" s="23"/>
       <c r="D6" s="2" t="s">
@@ -1281,77 +1272,152 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="30" customHeight="1">
+    <row r="7" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="6">
         <v>25</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
+      <c r="D7" s="7">
+        <v>3</v>
+      </c>
+      <c r="E7" s="8">
+        <f>SUM(D7*C7)</f>
+        <v>75</v>
+      </c>
+      <c r="F7" s="8">
+        <v>1</v>
+      </c>
+      <c r="G7" s="8">
+        <f>SUM(F7*C7)</f>
+        <v>25</v>
+      </c>
+      <c r="H7" s="8">
+        <v>5</v>
+      </c>
+      <c r="I7" s="9">
+        <f>SUM(H7*C7)</f>
+        <v>125</v>
+      </c>
     </row>
-    <row r="8" spans="2:9" ht="30" customHeight="1">
+    <row r="8" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="11">
         <v>10</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="9"/>
+      <c r="D8" s="12">
+        <v>3</v>
+      </c>
+      <c r="E8" s="8">
+        <f t="shared" ref="E8:E11" si="0">SUM(D8*C8)</f>
+        <v>30</v>
+      </c>
+      <c r="F8" s="13">
+        <v>5</v>
+      </c>
+      <c r="G8" s="8">
+        <f>SUM(F8*C8)</f>
+        <v>50</v>
+      </c>
+      <c r="H8" s="13">
+        <v>4</v>
+      </c>
+      <c r="I8" s="9">
+        <f t="shared" ref="I8:I11" si="1">SUM(H8*C8)</f>
+        <v>40</v>
+      </c>
     </row>
-    <row r="9" spans="2:9" ht="30" customHeight="1">
+    <row r="9" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="11">
         <v>40</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="9"/>
+      <c r="D9" s="12">
+        <v>3</v>
+      </c>
+      <c r="E9" s="8">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="F9" s="13">
+        <v>5</v>
+      </c>
+      <c r="G9" s="8">
+        <f>SUM(F9*C9)</f>
+        <v>200</v>
+      </c>
+      <c r="H9" s="13">
+        <v>2</v>
+      </c>
+      <c r="I9" s="9">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
     </row>
-    <row r="10" spans="2:9" ht="30" customHeight="1">
+    <row r="10" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="11">
         <v>20</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="9"/>
+      <c r="D10" s="12">
+        <v>5</v>
+      </c>
+      <c r="E10" s="8">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="F10" s="13">
+        <v>3</v>
+      </c>
+      <c r="G10" s="8">
+        <f t="shared" ref="G8:G11" si="2">SUM(F10*C10)</f>
+        <v>60</v>
+      </c>
+      <c r="H10" s="13">
+        <v>3</v>
+      </c>
+      <c r="I10" s="9">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
     </row>
-    <row r="11" spans="2:9" ht="30" customHeight="1" thickBot="1">
+    <row r="11" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="11">
         <v>5</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="9"/>
+      <c r="D11" s="12">
+        <v>5</v>
+      </c>
+      <c r="E11" s="8">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="F11" s="13">
+        <v>2</v>
+      </c>
+      <c r="G11" s="8">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="H11" s="13">
+        <v>3</v>
+      </c>
+      <c r="I11" s="9">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
     </row>
-    <row r="12" spans="2:9" ht="30" customHeight="1" thickBot="1">
+    <row r="12" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
         <v>13</v>
       </c>
@@ -1359,11 +1425,20 @@
         <v>100</v>
       </c>
       <c r="D12" s="16"/>
-      <c r="E12" s="17"/>
+      <c r="E12" s="17">
+        <f>SUM(E7:E11)</f>
+        <v>350</v>
+      </c>
       <c r="F12" s="18"/>
-      <c r="G12" s="17"/>
+      <c r="G12" s="17">
+        <f>SUM(G7:G11)</f>
+        <v>345</v>
+      </c>
       <c r="H12" s="18"/>
-      <c r="I12" s="19"/>
+      <c r="I12" s="19">
+        <f>SUM(I7:I11)</f>
+        <v>320</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1379,18 +1454,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1508,13 +1583,34 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{694D267B-EFB6-43D4-825B-2703AE83976D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5488711C-14E8-4468-8BBD-73B622B880AE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5488711C-14E8-4468-8BBD-73B622B880AE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{694D267B-EFB6-43D4-825B-2703AE83976D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAB04418-A127-47E4-92E7-8E62DEC8ED01}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAB04418-A127-47E4-92E7-8E62DEC8ED01}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>